--- a/Docs/需求/110-112年計畫彙整.xlsx
+++ b/Docs/需求/110-112年計畫彙整.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\新增資料夾\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDEC8C-3A89-4C19-955D-86A8380BA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FA13A-8427-42DB-BA14-FFD9F75D6F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{245A4A97-894C-4322-BC9B-A2BC971BC815}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{245A4A97-894C-4322-BC9B-A2BC971BC815}"/>
   </bookViews>
   <sheets>
     <sheet name="110年" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="180">
   <si>
     <r>
       <t>110</t>
@@ -1322,21 +1322,6 @@
   </si>
   <si>
     <r>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年資源循環教育推廣計畫</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>111</t>
     </r>
     <r>
@@ -1563,22 +1548,6 @@
   </si>
   <si>
     <r>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年桃園市用電大戶輔導及公民電廠推廣計畫</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -2142,19 +2111,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>講習訓練組</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>台北市病媒防治深度策略計畫</t>
     </r>
   </si>
@@ -2216,34 +2172,6 @@
         <charset val="136"/>
       </rPr>
       <t>環境部環境保護司</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>永續創新研發中心</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>年度臺南市低碳永續及溫室氣體減緩調適推動計畫</t>
     </r>
   </si>
   <si>
@@ -2516,19 +2444,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>綠色技術發展中心</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>廢棄物及資源循環法制建構計畫</t>
     </r>
   </si>
@@ -2735,19 +2650,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>環境與資源服務中心</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>112~113</t>
     </r>
     <r>
@@ -3175,19 +3077,6 @@
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>低碳策略與技術服務組</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
       <t>產業節能輔導暨能效提升推動計畫</t>
     </r>
   </si>
@@ -3214,19 +3103,6 @@
       </rPr>
       <t>高雄市政府水利局</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資訊室</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3484,6 +3360,30 @@
       </rPr>
       <t>水利署第十河川局</t>
     </r>
+  </si>
+  <si>
+    <t>永續創新研發中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>講習訓練組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠色技術發展中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境與資源服務中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低碳策略與技術服務組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3534,7 +3434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3557,13 +3457,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3603,14 +3512,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3948,7 +3860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE322545-D787-49D3-B458-84332AED388F}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -4441,10 +4353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E26D6-F2BA-42A3-A90B-E116ACBC4937}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4562,7 +4474,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4573,7 +4485,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,7 +4496,7 @@
         <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4606,7 +4518,7 @@
         <v>73</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4617,7 +4529,7 @@
         <v>74</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4625,13 +4537,13 @@
         <v>111</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>111</v>
       </c>
@@ -4642,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>111</v>
       </c>
@@ -4653,51 +4565,51 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>111</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>111</v>
       </c>
@@ -4705,10 +4617,10 @@
         <v>84</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>111</v>
       </c>
@@ -4716,92 +4628,95 @@
         <v>85</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>111</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>111</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>111</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>111</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>111</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>111</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>66</v>
@@ -4812,7 +4727,7 @@
         <v>111</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>66</v>
@@ -4823,7 +4738,7 @@
         <v>111</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>66</v>
@@ -4834,7 +4749,7 @@
         <v>111</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>66</v>
@@ -4845,7 +4760,7 @@
         <v>111</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>66</v>
@@ -4856,10 +4771,10 @@
         <v>111</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4867,10 +4782,10 @@
         <v>111</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4878,10 +4793,10 @@
         <v>111</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4889,10 +4804,10 @@
         <v>111</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4900,10 +4815,10 @@
         <v>111</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4911,10 +4826,10 @@
         <v>111</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4922,10 +4837,10 @@
         <v>111</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4933,10 +4848,10 @@
         <v>111</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4944,10 +4859,10 @@
         <v>111</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4955,10 +4870,10 @@
         <v>111</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4966,10 +4881,10 @@
         <v>111</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4977,10 +4892,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4988,10 +4903,10 @@
         <v>111</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -4999,43 +4914,10 @@
         <v>111</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>111</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>111</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="5" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>111</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -5046,18 +4928,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41A24AC-F0C4-483A-ABFF-4743C773A3FC}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="89.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="13" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5077,13 +4959,13 @@
         <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5091,7 +4973,7 @@
         <v>112</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
@@ -5103,7 +4985,7 @@
         <v>112</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>7</v>
@@ -5115,10 +4997,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="14"/>
     </row>
@@ -5130,7 +5012,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="14"/>
     </row>
@@ -5139,10 +5021,10 @@
         <v>112</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="14"/>
     </row>
@@ -5151,13 +5033,13 @@
         <v>112</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5165,10 +5047,10 @@
         <v>112</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D9" s="14"/>
     </row>
@@ -5177,10 +5059,10 @@
         <v>112</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" s="14"/>
     </row>
@@ -5189,10 +5071,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="14"/>
     </row>
@@ -5201,10 +5083,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="D12" s="14"/>
     </row>
@@ -5216,7 +5098,7 @@
         <v>130</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D13" s="14"/>
     </row>
@@ -5225,10 +5107,10 @@
         <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D14" s="14"/>
     </row>
@@ -5237,10 +5119,10 @@
         <v>112</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="D15" s="14"/>
     </row>
@@ -5249,22 +5131,24 @@
         <v>112</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>134</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>112</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="14"/>
     </row>
@@ -5276,7 +5160,7 @@
         <v>137</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D18" s="14"/>
     </row>
@@ -5288,21 +5172,19 @@
         <v>138</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>140</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>112</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="D20" s="14"/>
     </row>
@@ -5311,10 +5193,10 @@
         <v>112</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D21" s="14"/>
     </row>
@@ -5323,10 +5205,10 @@
         <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D22" s="14"/>
     </row>
@@ -5335,10 +5217,10 @@
         <v>112</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="D23" s="14"/>
     </row>
@@ -5347,60 +5229,60 @@
         <v>112</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="14"/>
+        <v>145</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" s="14"/>
+        <v>145</v>
+      </c>
+      <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>112</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="14"/>
+        <v>145</v>
+      </c>
+      <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>112</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>152</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>112</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D28" s="15"/>
     </row>
@@ -5409,10 +5291,10 @@
         <v>112</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D29" s="15"/>
     </row>
@@ -5421,10 +5303,10 @@
         <v>112</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D30" s="15"/>
     </row>
@@ -5433,10 +5315,10 @@
         <v>112</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="D31" s="15"/>
     </row>
@@ -5445,10 +5327,10 @@
         <v>112</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D32" s="15"/>
     </row>
@@ -5457,10 +5339,10 @@
         <v>112</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D33" s="15"/>
     </row>
@@ -5469,10 +5351,10 @@
         <v>112</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="D34" s="15"/>
     </row>
@@ -5481,49 +5363,51 @@
         <v>112</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>112</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="D36" s="16"/>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>112</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="D37" s="16"/>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>112</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,46 +5415,46 @@
         <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>112</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D40" s="15"/>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>112</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>169</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D41" s="15"/>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>112</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D42" s="15"/>
     </row>
@@ -5579,10 +5463,10 @@
         <v>112</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D43" s="15"/>
     </row>
@@ -5591,10 +5475,10 @@
         <v>112</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D44" s="15"/>
     </row>
@@ -5603,10 +5487,10 @@
         <v>112</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="D45" s="15"/>
     </row>
@@ -5615,10 +5499,10 @@
         <v>112</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D46" s="15"/>
     </row>
@@ -5627,56 +5511,21 @@
         <v>112</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>112</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>112</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="15"/>
-    </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>112</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D18"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="D27:D37"/>
-    <mergeCell ref="D41:D50"/>
+    <mergeCell ref="D8:D15"/>
+    <mergeCell ref="D16:D23"/>
+    <mergeCell ref="D24:D34"/>
+    <mergeCell ref="D38:D47"/>
+    <mergeCell ref="D35:D37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/需求/110-112年計畫彙整.xlsx
+++ b/Docs/需求/110-112年計畫彙整.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\新增資料夾\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0FA13A-8427-42DB-BA14-FFD9F75D6F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433C37B7-1BB6-4FC2-9647-A10EE0D1CC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{245A4A97-894C-4322-BC9B-A2BC971BC815}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{245A4A97-894C-4322-BC9B-A2BC971BC815}"/>
   </bookViews>
   <sheets>
     <sheet name="110年" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="182">
   <si>
     <r>
       <t>110</t>
@@ -3383,6 +3383,14 @@
   </si>
   <si>
     <t>資訊室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J00007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林正祥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3390,7 +3398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3418,6 +3426,12 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3472,7 +3486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3523,6 +3537,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3858,491 +3887,871 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE322545-D787-49D3-B458-84332AED388F}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="B1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="76.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="76.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:7" ht="35.15" customHeight="1">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B2" s="4">
         <v>110</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="E2" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B3" s="4">
         <v>110</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="E3" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="4">
         <v>110</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="E4" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="4">
         <v>110</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="E5" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="4">
         <v>110</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="E6" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="4">
         <v>110</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="E7" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="4">
         <v>110</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="E8" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="4">
         <v>110</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="E9" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="4">
         <v>110</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="E10" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="4">
         <v>110</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="E11" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="4">
         <v>110</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="E12" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="4">
         <v>110</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="E13" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="4">
         <v>110</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E14" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="4">
         <v>110</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="E15" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="4">
         <v>110</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="E16" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="4">
         <v>110</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="E17" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B18" s="4">
         <v>110</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="E18" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="4">
         <v>110</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="E19" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="4">
         <v>110</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="E20" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="4">
         <v>110</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="E21" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B22" s="4">
         <v>110</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="E22" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B23" s="4">
         <v>110</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="E23" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B24" s="4">
         <v>110</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="E24" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B25" s="4">
         <v>110</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="E25" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B26" s="4">
         <v>110</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="E26" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B27" s="4">
         <v>110</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="E27" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B28" s="4">
         <v>110</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="E28" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B29" s="4">
         <v>110</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="E29" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B30" s="4">
         <v>110</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="E30" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B31" s="4">
         <v>110</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+      <c r="E31" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+      <c r="B32" s="7">
         <v>110</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="E32" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B33" s="4">
         <v>110</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="E33" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B34" s="4">
         <v>110</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="E34" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B35" s="4">
         <v>110</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="E35" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B36" s="4">
         <v>110</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="E36" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B37" s="4">
         <v>110</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="E37" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B38" s="4">
         <v>110</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="E38" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B39" s="4">
         <v>110</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="E39" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B40" s="4">
         <v>110</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="E40" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B41" s="4">
         <v>110</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="E41" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B42" s="4">
         <v>110</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="E42" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B43" s="4">
         <v>110</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>22</v>
+      </c>
+      <c r="E43" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4353,571 +4762,1010 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{412E26D6-F2BA-42A3-A90B-E116ACBC4937}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="B1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="80.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="80.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:7" ht="35.15" customHeight="1">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B2" s="4">
         <v>111</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="E2" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B3" s="4">
         <v>111</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="E3" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="4">
         <v>111</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="E4" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="4">
         <v>111</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="E5" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="4">
         <v>111</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="E6" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="4">
         <v>111</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="E7" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="4">
         <v>111</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="E8" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="4">
         <v>111</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="E9" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="4">
         <v>111</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="E10" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="4">
         <v>111</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="E11" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="4">
         <v>111</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="E12" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="4">
         <v>111</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="E13" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="4">
         <v>111</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E14" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="4">
         <v>111</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="E15" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="4">
         <v>111</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="E16" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="4">
         <v>111</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="E17" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B18" s="4">
         <v>111</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="E18" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="4">
         <v>111</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="E19" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="4">
         <v>111</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="E20" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="4">
         <v>111</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="E21" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B22" s="4">
         <v>111</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="E22" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B23" s="4">
         <v>111</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="E23" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B24" s="4">
         <v>111</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="E24" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B25" s="4">
         <v>111</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="E25" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B26" s="4">
         <v>111</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="E26" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B27" s="4">
         <v>111</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="E27" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B28" s="4">
         <v>111</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="E28" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B29" s="4">
         <v>111</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="E29" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B30" s="4">
         <v>111</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="E30" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B31" s="4">
         <v>111</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="E31" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B32" s="4">
         <v>111</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="E32" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B33" s="4">
         <v>111</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="E33" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B34" s="4">
         <v>111</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="E34" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B35" s="4">
         <v>111</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="E35" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B36" s="4">
         <v>111</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="E36" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B37" s="4">
         <v>111</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="E37" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B38" s="4">
         <v>111</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="E38" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B39" s="4">
         <v>111</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="E39" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B40" s="4">
         <v>111</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="E40" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B41" s="4">
         <v>111</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="E41" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B42" s="4">
         <v>111</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="E42" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B43" s="4">
         <v>111</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="E43" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B44" s="4">
         <v>111</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="E44" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B45" s="4">
         <v>111</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="E45" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B46" s="4">
         <v>111</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="E46" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B47" s="4">
         <v>111</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="E47" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B48" s="4">
         <v>111</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="E48" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B49" s="4">
         <v>111</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="C49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="E49" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="20.149999999999999" customHeight="1">
+      <c r="B50" s="4">
         <v>111</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>112</v>
+      </c>
+      <c r="E50" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4928,604 +5776,1072 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41A24AC-F0C4-483A-ABFF-4743C773A3FC}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="89.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="89.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.90625" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:9" ht="30" customHeight="1">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B2" s="4">
         <v>112</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B3" s="4">
         <v>112</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="E3" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B4" s="4">
         <v>112</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="E4" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B5" s="4">
         <v>112</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="E5" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B6" s="4">
         <v>112</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="E6" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B7" s="4">
         <v>112</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="E7" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B8" s="4">
         <v>112</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B9" s="4">
         <v>112</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="E9" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B10" s="4">
         <v>112</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="E10" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B11" s="4">
         <v>112</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="E11" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B12" s="4">
         <v>112</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="E12" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B13" s="4">
         <v>112</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="E13" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B14" s="4">
         <v>112</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="E14" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B15" s="4">
         <v>112</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="E15" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B16" s="4">
         <v>112</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B17" s="4">
         <v>112</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="E17" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B18" s="4">
         <v>112</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="E18" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B19" s="4">
         <v>112</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="E19" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B20" s="4">
         <v>112</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="E20" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B21" s="4">
         <v>112</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="E21" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B22" s="4">
         <v>112</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="E22" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B23" s="4">
         <v>112</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="E23" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="14"/>
+    </row>
+    <row r="24" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B24" s="4">
         <v>112</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B25" s="4">
         <v>112</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="E25" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B26" s="4">
         <v>112</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="E26" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B27" s="4">
         <v>112</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="E27" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B28" s="4">
         <v>112</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="E28" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B29" s="4">
         <v>112</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="E29" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B30" s="4">
         <v>112</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="E30" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B31" s="4">
         <v>112</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="15"/>
-    </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="E31" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B32" s="4">
         <v>112</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="E32" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B33" s="4">
         <v>112</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="15"/>
-    </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="E33" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="15"/>
+    </row>
+    <row r="34" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B34" s="4">
         <v>112</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="E34" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="15"/>
+    </row>
+    <row r="35" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B35" s="4">
         <v>112</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="21"/>
+      <c r="I35" s="16" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="36" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B36" s="4">
         <v>112</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D36" s="16"/>
-    </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="E36" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="21"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B37" s="4">
         <v>112</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="E37" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H37" s="21"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B38" s="4">
         <v>112</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="E38" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="15" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="39" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B39" s="4">
         <v>112</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="E39" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="15"/>
+    </row>
+    <row r="40" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B40" s="4">
         <v>112</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="E40" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="15"/>
+    </row>
+    <row r="41" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B41" s="4">
         <v>112</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="15"/>
-    </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="E41" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="15"/>
+    </row>
+    <row r="42" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B42" s="4">
         <v>112</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="E42" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B43" s="4">
         <v>112</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="D43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="15"/>
-    </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="E43" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B44" s="4">
         <v>112</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="E44" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B45" s="4">
         <v>112</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="15"/>
-    </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="E45" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="15"/>
+    </row>
+    <row r="46" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B46" s="4">
         <v>112</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="E46" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="2:9" ht="20.149999999999999" customHeight="1">
+      <c r="B47" s="4">
         <v>112</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="E47" s="17">
+        <v>45309</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D15"/>
-    <mergeCell ref="D16:D23"/>
-    <mergeCell ref="D24:D34"/>
-    <mergeCell ref="D38:D47"/>
-    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="I8:I15"/>
+    <mergeCell ref="I16:I23"/>
+    <mergeCell ref="I24:I34"/>
+    <mergeCell ref="I38:I47"/>
+    <mergeCell ref="I35:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
